--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kittipat1413/embedded/RPI/Omron_D6T/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2AFDB48-D1C2-6D44-9BC6-8FBDAB56AA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA88C14-409E-344F-AD03-A7EBCB3E5D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{EAD3F8A8-0474-3747-9049-6BFA15DDFE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>thermometer</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">ambient </t>
+  </si>
+  <si>
+    <t>offset</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A88D87-691A-064F-B5B5-50DC6DAACD29}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,7 +409,7 @@
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +419,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36.1</v>
       </c>
@@ -427,8 +433,12 @@
       <c r="C2">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>A2-B2</f>
+        <v>3.8999999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36.1</v>
       </c>
@@ -438,8 +448,12 @@
       <c r="C3">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D30" si="0">A3-B3</f>
+        <v>4.2000000000000028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>35.799999999999997</v>
       </c>
@@ -449,8 +463,12 @@
       <c r="C4">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36</v>
       </c>
@@ -460,8 +478,12 @@
       <c r="C5">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>35.799999999999997</v>
       </c>
@@ -471,8 +493,12 @@
       <c r="C6">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>36</v>
       </c>
@@ -482,8 +508,12 @@
       <c r="C7">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>36.5</v>
       </c>
@@ -493,8 +523,12 @@
       <c r="C8">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36.5</v>
       </c>
@@ -504,8 +538,12 @@
       <c r="C9">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>36</v>
       </c>
@@ -515,8 +553,12 @@
       <c r="C10">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>36.799999999999997</v>
       </c>
@@ -526,8 +568,12 @@
       <c r="C11">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35.799999999999997</v>
       </c>
@@ -537,8 +583,12 @@
       <c r="C12">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36.299999999999997</v>
       </c>
@@ -548,8 +598,12 @@
       <c r="C13">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>36.4</v>
       </c>
@@ -559,8 +613,12 @@
       <c r="C14">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>36.700000000000003</v>
       </c>
@@ -570,8 +628,12 @@
       <c r="C15">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>36.4</v>
       </c>
@@ -581,8 +643,12 @@
       <c r="C16">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>36.700000000000003</v>
       </c>
@@ -592,8 +658,12 @@
       <c r="C17">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36.200000000000003</v>
       </c>
@@ -603,8 +673,12 @@
       <c r="C18">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>36</v>
       </c>
@@ -614,8 +688,12 @@
       <c r="C19">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36.200000000000003</v>
       </c>
@@ -625,8 +703,12 @@
       <c r="C20">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>36</v>
       </c>
@@ -636,8 +718,12 @@
       <c r="C21">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>36</v>
       </c>
@@ -647,8 +733,12 @@
       <c r="C22">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>36.1</v>
       </c>
@@ -658,8 +748,12 @@
       <c r="C23">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>36</v>
       </c>
@@ -669,8 +763,12 @@
       <c r="C24">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36.9</v>
       </c>
@@ -680,8 +778,12 @@
       <c r="C25">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>37</v>
       </c>
@@ -691,8 +793,12 @@
       <c r="C26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>36.799999999999997</v>
       </c>
@@ -702,8 +808,12 @@
       <c r="C27">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>36.5</v>
       </c>
@@ -713,8 +823,12 @@
       <c r="C28">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>36.200000000000003</v>
       </c>
@@ -724,8 +838,12 @@
       <c r="C29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36.4</v>
       </c>
@@ -735,8 +853,12 @@
       <c r="C30">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>36.1</v>
       </c>
@@ -745,6 +867,10 @@
       </c>
       <c r="C31">
         <v>24</v>
+      </c>
+      <c r="D31">
+        <f>A31-B31</f>
+        <v>3.2000000000000028</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kittipat1413/embedded/RPI/Omron_D6T/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA88C14-409E-344F-AD03-A7EBCB3E5D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E53C23-AC61-BD46-8750-ABA90A25F907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{EAD3F8A8-0474-3747-9049-6BFA15DDFE8D}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15740" xr2:uid="{EAD3F8A8-0474-3747-9049-6BFA15DDFE8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A88D87-691A-064F-B5B5-50DC6DAACD29}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,6 +873,321 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>35.9</v>
+      </c>
+      <c r="B32">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C32">
+        <v>24.2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D58" si="1">A32-B32</f>
+        <v>3.6999999999999957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>36.4</v>
+      </c>
+      <c r="B33">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C33">
+        <v>24.8</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="B34">
+        <v>33.5</v>
+      </c>
+      <c r="C34">
+        <v>24.8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>36.1</v>
+      </c>
+      <c r="B35">
+        <v>32.9</v>
+      </c>
+      <c r="C35">
+        <v>24.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>36.5</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36.6</v>
+      </c>
+      <c r="B37">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C37">
+        <v>25.3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B38">
+        <v>33.5</v>
+      </c>
+      <c r="C38">
+        <v>25.2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36.6</v>
+      </c>
+      <c r="B39">
+        <v>33.4</v>
+      </c>
+      <c r="C39">
+        <v>24.8</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36.4</v>
+      </c>
+      <c r="B40">
+        <v>33.4</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>36.6</v>
+      </c>
+      <c r="B41">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C41">
+        <v>28.3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>36.1</v>
+      </c>
+      <c r="B42">
+        <v>33.9</v>
+      </c>
+      <c r="C42">
+        <v>28.3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>28.3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="B44">
+        <v>34.4</v>
+      </c>
+      <c r="C44">
+        <v>28.3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2.3000000000000043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>36.4</v>
+      </c>
+      <c r="B45">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C45">
+        <v>28.5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>36.4</v>
+      </c>
+      <c r="B46">
+        <v>33.9</v>
+      </c>
+      <c r="C46">
+        <v>28.4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>36.4</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>28.4</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="B48">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C48">
+        <v>25.9</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>36.6</v>
+      </c>
+      <c r="B49">
+        <v>33.5</v>
+      </c>
+      <c r="C49">
+        <v>25.3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>36.4</v>
+      </c>
+      <c r="B50">
+        <v>33.5</v>
+      </c>
+      <c r="C50">
+        <v>24.8</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>35.9</v>
+      </c>
+      <c r="B51">
+        <v>33.4</v>
+      </c>
+      <c r="C51">
+        <v>24.4</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>36.5</v>
+      </c>
+      <c r="B52">
+        <v>33.5</v>
+      </c>
+      <c r="C52">
+        <v>24.2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
